--- a/Output/Table1.xlsx
+++ b/Output/Table1.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -413,25 +413,25 @@
         </is>
       </c>
       <c r="B2" s="2">
-        <v>43915</v>
+        <v>43919</v>
       </c>
       <c r="C2">
-        <v>0.005738527141330698</v>
+        <v>0.006754162448951098</v>
       </c>
       <c r="D2">
-        <v>0.008215687128642849</v>
+        <v>0.009464650821448846</v>
       </c>
       <c r="E2">
-        <v>0.002144398024504367</v>
+        <v>-0.0004602093717535852</v>
       </c>
       <c r="F2">
-        <v>0.006071289104138482</v>
+        <v>0.009924860193202432</v>
       </c>
       <c r="G2">
-        <v>0.2610126202382052</v>
+        <v>0.0443145198859854</v>
       </c>
       <c r="H2">
-        <v>0.7389873797617947</v>
+        <v>0.9556854801140146</v>
       </c>
     </row>
     <row r="3">
@@ -447,19 +447,19 @@
         <v>0.01227108704745637</v>
       </c>
       <c r="D3">
-        <v>0.00168312722251718</v>
+        <v>0.003947726222943577</v>
       </c>
       <c r="E3">
-        <v>-0.0002386230963777816</v>
+        <v>-0.0001608464805649595</v>
       </c>
       <c r="F3">
-        <v>0.001921750318894962</v>
+        <v>0.004108572703508538</v>
       </c>
       <c r="G3">
-        <v>0.1104545606286568</v>
+        <v>0.03767408952603575</v>
       </c>
       <c r="H3">
-        <v>0.8895454393713432</v>
+        <v>0.9623259104739642</v>
       </c>
     </row>
     <row r="4">
@@ -469,10 +469,10 @@
         </is>
       </c>
       <c r="B4" s="2">
-        <v>43916</v>
+        <v>43920</v>
       </c>
       <c r="C4">
-        <v>0.01395421426997355</v>
+        <v>0.01621881327039994</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -497,19 +497,19 @@
         <v>0.01732289677803195</v>
       </c>
       <c r="D5">
-        <v>-0.003368682508058406</v>
+        <v>-0.001104083507632008</v>
       </c>
       <c r="E5">
-        <v>-0.009905958297177265</v>
+        <v>-0.01130159718274817</v>
       </c>
       <c r="F5">
-        <v>0.006537275789118861</v>
+        <v>0.01019751367511616</v>
       </c>
       <c r="G5">
-        <v>0.6024336967526931</v>
+        <v>0.5256774225439219</v>
       </c>
       <c r="H5">
-        <v>0.3975663032473071</v>
+        <v>0.474322577456078</v>
       </c>
     </row>
     <row r="6">
@@ -525,19 +525,19 @@
         <v>0.02276530386775508</v>
       </c>
       <c r="D6">
-        <v>-0.008811089597781534</v>
+        <v>-0.006546490597355136</v>
       </c>
       <c r="E6">
-        <v>-0.001222002665949007</v>
+        <v>-0.0009030758576810743</v>
       </c>
       <c r="F6">
-        <v>-0.007589086931832525</v>
+        <v>-0.005643414739674061</v>
       </c>
       <c r="G6">
-        <v>0.138689165782253</v>
+        <v>0.1379480874907127</v>
       </c>
       <c r="H6">
-        <v>0.8613108342177471</v>
+        <v>0.8620519125092873</v>
       </c>
     </row>
     <row r="7">
@@ -547,81 +547,109 @@
         </is>
       </c>
       <c r="B7" s="2">
-        <v>43905</v>
+        <v>43914</v>
       </c>
       <c r="C7">
-        <v>0.02620742418467345</v>
+        <v>0.03983587515221891</v>
       </c>
       <c r="D7">
-        <v>-0.01225320991469991</v>
+        <v>-0.02361706188181897</v>
       </c>
       <c r="E7">
-        <v>-0.01539889014453901</v>
+        <v>-0.02098271874324288</v>
       </c>
       <c r="F7">
-        <v>0.003145680229839099</v>
+        <v>-0.002634343138576091</v>
       </c>
       <c r="G7">
-        <v>0.830371900435866</v>
+        <v>0.8884559327591854</v>
       </c>
       <c r="H7">
-        <v>0.169628099564134</v>
+        <v>0.1115440672408145</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>USA_WA</t>
         </is>
       </c>
       <c r="B8" s="2">
-        <v>43915</v>
+        <v>43919</v>
       </c>
       <c r="C8">
-        <v>0.07277354595287251</v>
+        <v>0.04349561395511622</v>
       </c>
       <c r="D8">
-        <v>-0.05881933168289896</v>
+        <v>-0.02727680068471627</v>
       </c>
       <c r="E8">
-        <v>-0.03356800370397964</v>
+        <v>-0.01993017427657376</v>
       </c>
       <c r="F8">
-        <v>-0.02525132797891931</v>
+        <v>-0.007346626408142511</v>
       </c>
       <c r="G8">
-        <v>0.5706967886841726</v>
+        <v>0.7306639259838501</v>
       </c>
       <c r="H8">
-        <v>0.4293032113158274</v>
+        <v>0.26933607401615</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B9" s="2">
+        <v>43919</v>
+      </c>
+      <c r="C9">
+        <v>0.08615529080345091</v>
+      </c>
+      <c r="D9">
+        <v>-0.06993647753305096</v>
+      </c>
+      <c r="E9">
+        <v>-0.03964027430057621</v>
+      </c>
+      <c r="F9">
+        <v>-0.03029620323247475</v>
+      </c>
+      <c r="G9">
+        <v>0.5668039869729326</v>
+      </c>
+      <c r="H9">
+        <v>0.4331960130270674</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="B9" s="2">
-        <v>43916</v>
-      </c>
-      <c r="C9">
-        <v>0.09630539297713012</v>
-      </c>
-      <c r="D9">
-        <v>-0.08235117870715657</v>
-      </c>
-      <c r="E9">
-        <v>-0.04561535718713806</v>
-      </c>
-      <c r="F9">
-        <v>-0.03673582152001852</v>
-      </c>
-      <c r="G9">
-        <v>0.5539126203566281</v>
-      </c>
-      <c r="H9">
-        <v>0.4460873796433718</v>
+      <c r="B10" s="2">
+        <v>43919</v>
+      </c>
+      <c r="C10">
+        <v>0.1063320056230004</v>
+      </c>
+      <c r="D10">
+        <v>-0.09011319235260046</v>
+      </c>
+      <c r="E10">
+        <v>-0.0518290945368735</v>
+      </c>
+      <c r="F10">
+        <v>-0.03828409781572694</v>
+      </c>
+      <c r="G10">
+        <v>0.5751554593035994</v>
+      </c>
+      <c r="H10">
+        <v>0.4248445406964007</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Table1.xlsx
+++ b/Output/Table1.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,253 +409,179 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>SouthKorea</t>
         </is>
       </c>
       <c r="B2" s="2">
-        <v>43919</v>
+        <v>43942</v>
       </c>
       <c r="C2">
-        <v>0.006754162448951098</v>
+        <v>0.02218477955630441</v>
       </c>
       <c r="D2">
-        <v>0.009464650821448846</v>
+        <v>-0.0002356190647932951</v>
       </c>
       <c r="E2">
-        <v>-0.0004602093717535852</v>
+        <v>9.631854279609444e-006</v>
       </c>
       <c r="F2">
-        <v>0.009924860193202432</v>
+        <v>-0.0002452509190729032</v>
       </c>
       <c r="G2">
-        <v>0.0443145198859854</v>
+        <v>0.03778934979763508</v>
       </c>
       <c r="H2">
-        <v>0.9556854801140146</v>
+        <v>0.9622106502023649</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>USA_NYC</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B3" s="2">
-        <v>43914</v>
+        <v>43872</v>
       </c>
       <c r="C3">
-        <v>0.01227108704745637</v>
+        <v>0.02290025071633238</v>
       </c>
       <c r="D3">
-        <v>0.003947726222943577</v>
+        <v>-0.000951090224821264</v>
       </c>
       <c r="E3">
-        <v>-0.0001608464805649595</v>
+        <v>-0.001865905070842499</v>
       </c>
       <c r="F3">
-        <v>0.004108572703508538</v>
+        <v>0.0009148148460212372</v>
       </c>
       <c r="G3">
-        <v>0.03767408952603575</v>
+        <v>0.6710151063854642</v>
       </c>
       <c r="H3">
-        <v>0.9623259104739642</v>
+        <v>0.3289848936145358</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SouthKorea</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B4" s="2">
-        <v>43921</v>
+        <v>43914</v>
       </c>
       <c r="C4">
-        <v>0.01642874167860543</v>
+        <v>0.03983587515221891</v>
       </c>
       <c r="D4">
-        <v>-0.0002099284082054884</v>
+        <v>-0.0178867146607078</v>
       </c>
       <c r="E4">
-        <v>-4.96770976360121e-006</v>
+        <v>-0.02067143833938045</v>
       </c>
       <c r="F4">
-        <v>-0.0002049606984418845</v>
+        <v>0.002784723678672646</v>
       </c>
       <c r="G4">
-        <v>0.02366382809294983</v>
+        <v>0.8812796536564944</v>
       </c>
       <c r="H4">
-        <v>0.9763361719070502</v>
+        <v>0.1187203463435056</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B5" s="2">
-        <v>43906</v>
+        <v>43940</v>
       </c>
       <c r="C5">
-        <v>0.01732289677803195</v>
+        <v>0.06870385174884934</v>
       </c>
       <c r="D5">
-        <v>-0.001104083507632008</v>
+        <v>-0.04675469125733822</v>
       </c>
       <c r="E5">
-        <v>-0.01130159718274817</v>
+        <v>-0.01246165171055522</v>
       </c>
       <c r="F5">
-        <v>0.01019751367511616</v>
+        <v>-0.034293039546783</v>
       </c>
       <c r="G5">
-        <v>0.5256774225439219</v>
+        <v>0.2665326489264187</v>
       </c>
       <c r="H5">
-        <v>0.474322577456078</v>
+        <v>0.7334673510735814</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B6" s="2">
-        <v>43872</v>
+        <v>43937</v>
       </c>
       <c r="C6">
-        <v>0.02276530386775508</v>
+        <v>0.1050210003716739</v>
       </c>
       <c r="D6">
-        <v>-0.006546490597355136</v>
+        <v>-0.08307183988016276</v>
       </c>
       <c r="E6">
-        <v>-0.0009030758576810743</v>
+        <v>-0.05560002378836659</v>
       </c>
       <c r="F6">
-        <v>-0.005643414739674061</v>
+        <v>-0.02747181609179617</v>
       </c>
       <c r="G6">
-        <v>0.1379480874907127</v>
+        <v>0.66930049784107</v>
       </c>
       <c r="H6">
-        <v>0.8620519125092873</v>
+        <v>0.33069950215893</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B7" s="2">
-        <v>43914</v>
+        <v>43941</v>
       </c>
       <c r="C7">
-        <v>0.03983587515221891</v>
+        <v>0.1272752828730058</v>
       </c>
       <c r="D7">
-        <v>-0.02361706188181897</v>
+        <v>-0.1053261223814947</v>
       </c>
       <c r="E7">
-        <v>-0.02098271874324288</v>
+        <v>-0.06796855464528848</v>
       </c>
       <c r="F7">
-        <v>-0.002634343138576091</v>
+        <v>-0.03735756773620624</v>
       </c>
       <c r="G7">
-        <v>0.8884559327591854</v>
+        <v>0.6453152656574986</v>
       </c>
       <c r="H7">
-        <v>0.1115440672408145</v>
+        <v>0.3546847343425013</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>USA_WA</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B8" s="2">
-        <v>43919</v>
-      </c>
-      <c r="C8">
-        <v>0.04349561395511622</v>
-      </c>
-      <c r="D8">
-        <v>-0.02727680068471627</v>
-      </c>
-      <c r="E8">
-        <v>-0.01993017427657376</v>
-      </c>
-      <c r="F8">
-        <v>-0.007346626408142511</v>
-      </c>
-      <c r="G8">
-        <v>0.7306639259838501</v>
-      </c>
-      <c r="H8">
-        <v>0.26933607401615</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="B9" s="2">
-        <v>43920</v>
-      </c>
-      <c r="C9">
-        <v>0.08673226219854474</v>
-      </c>
-      <c r="D9">
-        <v>-0.07051344892814479</v>
-      </c>
-      <c r="E9">
-        <v>-0.0402391793170359</v>
-      </c>
-      <c r="F9">
-        <v>-0.0302742696111089</v>
-      </c>
-      <c r="G9">
-        <v>0.5706596391000639</v>
-      </c>
-      <c r="H9">
-        <v>0.4293403608999361</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="B10" s="2">
-        <v>43920</v>
-      </c>
-      <c r="C10">
-        <v>0.1063067266095513</v>
-      </c>
-      <c r="D10">
-        <v>-0.09008791333915134</v>
-      </c>
-      <c r="E10">
-        <v>-0.05034900127707518</v>
-      </c>
-      <c r="F10">
-        <v>-0.03973891206207615</v>
-      </c>
-      <c r="G10">
-        <v>0.5588874179772349</v>
-      </c>
-      <c r="H10">
-        <v>0.4411125820227652</v>
+        <v>43941</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Table1.xlsx
+++ b/Output/Table1.xlsx
@@ -355,13 +355,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
@@ -372,35 +372,40 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>CFR2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>DiffSK</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>AgeCompSK</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>RateCompSK</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>relAgeSK</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>relRateSK</t>
         </is>
@@ -409,179 +414,265 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SouthKorea</t>
-        </is>
-      </c>
-      <c r="B2" s="2">
-        <v>43942</v>
-      </c>
-      <c r="C2">
-        <v>0.02218477955630441</v>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="C2" s="2">
+        <v>43906</v>
       </c>
       <c r="D2">
-        <v>-0.0002356190647932951</v>
+        <v>0.01796725060231124</v>
       </c>
       <c r="E2">
-        <v>9.631854279609444e-006</v>
+        <v>0.003981909889199872</v>
       </c>
       <c r="F2">
-        <v>-0.0002452509190729032</v>
+        <v>-0.01231536097948927</v>
       </c>
       <c r="G2">
-        <v>0.03778934979763508</v>
+        <v>0.01629727086868914</v>
       </c>
       <c r="H2">
-        <v>0.9622106502023649</v>
+        <v>0.4304169237152266</v>
+      </c>
+      <c r="I2">
+        <v>0.5695830762847735</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>China</t>
-        </is>
-      </c>
-      <c r="B3" s="2">
-        <v>43872</v>
-      </c>
-      <c r="C3">
-        <v>0.02290025071633238</v>
+          <t>SouthKorea</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="C3" s="2">
+        <v>43943</v>
       </c>
       <c r="D3">
-        <v>-0.000951090224821264</v>
+        <v>0.02225547035720965</v>
       </c>
       <c r="E3">
-        <v>-0.001865905070842499</v>
+        <v>-0.0003063098656985348</v>
       </c>
       <c r="F3">
-        <v>0.0009148148460212372</v>
+        <v>1.981077847107633e-005</v>
       </c>
       <c r="G3">
-        <v>0.6710151063854642</v>
+        <v>-0.0003261206441696108</v>
       </c>
       <c r="H3">
-        <v>0.3289848936145358</v>
+        <v>0.05726793570774701</v>
+      </c>
+      <c r="I3">
+        <v>0.942732064292253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="B4" s="2">
-        <v>43914</v>
-      </c>
-      <c r="C4">
-        <v>0.03983587515221891</v>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="C4" s="2">
+        <v>43872</v>
       </c>
       <c r="D4">
-        <v>-0.0178867146607078</v>
+        <v>0.02290025071633238</v>
       </c>
       <c r="E4">
-        <v>-0.02067143833938045</v>
+        <v>-0.000951090224821264</v>
       </c>
       <c r="F4">
-        <v>0.002784723678672646</v>
+        <v>-0.001865905070842499</v>
       </c>
       <c r="G4">
-        <v>0.8812796536564944</v>
+        <v>0.0009148148460212372</v>
       </c>
       <c r="H4">
-        <v>0.1187203463435056</v>
+        <v>0.6710151063854642</v>
+      </c>
+      <c r="I4">
+        <v>0.3289848936145358</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="B5" s="2">
-        <v>43940</v>
-      </c>
-      <c r="C5">
-        <v>0.06870385174884934</v>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="C5" s="2">
+        <v>43941</v>
       </c>
       <c r="D5">
-        <v>-0.04675469125733822</v>
+        <v>0.03205143844597228</v>
       </c>
       <c r="E5">
-        <v>-0.01246165171055522</v>
+        <v>-0.01010227795446117</v>
       </c>
       <c r="F5">
-        <v>-0.034293039546783</v>
+        <v>-0.01224049443597415</v>
       </c>
       <c r="G5">
-        <v>0.2665326489264187</v>
+        <v>0.002138216481512984</v>
       </c>
       <c r="H5">
-        <v>0.7334673510735814</v>
+        <v>0.8512928944894133</v>
+      </c>
+      <c r="I5">
+        <v>0.1487071055105867</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="B6" s="2">
-        <v>43937</v>
-      </c>
-      <c r="C6">
-        <v>0.1050210003716739</v>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="C6" s="2">
+        <v>43914</v>
       </c>
       <c r="D6">
-        <v>-0.08307183988016276</v>
+        <v>0.03983587515221891</v>
       </c>
       <c r="E6">
-        <v>-0.05560002378836659</v>
+        <v>-0.0178867146607078</v>
       </c>
       <c r="F6">
-        <v>-0.02747181609179617</v>
+        <v>-0.02067143833938045</v>
       </c>
       <c r="G6">
-        <v>0.66930049784107</v>
+        <v>0.002784723678672646</v>
       </c>
       <c r="H6">
-        <v>0.33069950215893</v>
+        <v>0.8812796536564944</v>
+      </c>
+      <c r="I6">
+        <v>0.1187203463435056</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="B7" s="2">
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NYC</t>
+        </is>
+      </c>
+      <c r="C7" s="2">
         <v>43941</v>
       </c>
-      <c r="C7">
-        <v>0.1272752828730058</v>
-      </c>
       <c r="D7">
-        <v>-0.1053261223814947</v>
+        <v>0.0708957990420689</v>
       </c>
       <c r="E7">
-        <v>-0.06796855464528848</v>
+        <v>-0.04894663855055778</v>
       </c>
       <c r="F7">
-        <v>-0.03735756773620624</v>
+        <v>-0.01281025699693983</v>
       </c>
       <c r="G7">
-        <v>0.6453152656574986</v>
+        <v>-0.03613638155361795</v>
       </c>
       <c r="H7">
-        <v>0.3546847343425013</v>
+        <v>0.2617188304710222</v>
+      </c>
+      <c r="I7">
+        <v>0.7382811695289777</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="B8" s="2">
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="C8" s="2">
+        <v>43937</v>
+      </c>
+      <c r="D8">
+        <v>0.1050210003716739</v>
+      </c>
+      <c r="E8">
+        <v>-0.08307183988016276</v>
+      </c>
+      <c r="F8">
+        <v>-0.05560002378836659</v>
+      </c>
+      <c r="G8">
+        <v>-0.02747181609179617</v>
+      </c>
+      <c r="H8">
+        <v>0.66930049784107</v>
+      </c>
+      <c r="I8">
+        <v>0.33069950215893</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="C9" s="2">
         <v>43941</v>
+      </c>
+      <c r="D9">
+        <v>0.1272752828730058</v>
+      </c>
+      <c r="E9">
+        <v>-0.1053261223814947</v>
+      </c>
+      <c r="F9">
+        <v>-0.06796855464528848</v>
+      </c>
+      <c r="G9">
+        <v>-0.03735756773620624</v>
+      </c>
+      <c r="H9">
+        <v>0.6453152656574986</v>
+      </c>
+      <c r="I9">
+        <v>0.3546847343425013</v>
       </c>
     </row>
   </sheetData>
